--- a/myapp/data/checksheet_data.xlsx
+++ b/myapp/data/checksheet_data.xlsx
@@ -654,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD47"/>
+  <dimension ref="A1:XFD45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AE39" sqref="AE39"/>
@@ -1048,13 +1048,11 @@
           <t>412</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>532</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
           <t>542</t>
@@ -1075,13 +1073,11 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr">
         <is>
           <t>212</t>
@@ -1159,7 +1155,191 @@
       </c>
     </row>
     <row r="6">
-      <c r="P6" s="22" t="n"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-07-30T20:41</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>10M LINE#01</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0265.310.087</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MB</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Shivam Gorade</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="P6" s="22" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>3221</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>SUMIT</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="AI7" s="13" t="n"/>
@@ -1698,8 +1878,6 @@
       <c r="AL45" s="16" t="n"/>
       <c r="AM45" s="16" t="n"/>
     </row>
-    <row r="46"/>
-    <row r="47"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="AI2:AK2"/>

--- a/myapp/data/checksheet_data.xlsx
+++ b/myapp/data/checksheet_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="72">
   <si>
     <t>ST-15</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Visual Inspection – No damage to C-bearing</t>
+  </si>
+  <si>
+    <t>ST-30 DMC NO</t>
   </si>
   <si>
     <t>No Damage to Head of ECU Screws After Torquing</t>
@@ -181,14 +184,65 @@
     <t xml:space="preserve">shivam </t>
   </si>
   <si>
-    <t>ST-30 DMC NO</t>
+    <t>2025-08-07</t>
+  </si>
+  <si>
+    <t>Vinayak Lohar</t>
+  </si>
+  <si>
+    <t>12349999</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>89076000</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>2025-08-21</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>2025-09-04</t>
+  </si>
+  <si>
+    <t>10M LINE#02</t>
+  </si>
+  <si>
+    <t>Anup Polleyi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,21 +252,14 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -227,7 +274,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -267,21 +314,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -314,19 +346,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -448,36 +467,55 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -486,65 +524,67 @@
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -828,53 +868,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI8" sqref="AI8"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="20.6328125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="30.90625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="24.54296875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" style="19" customWidth="1"/>
-    <col min="10" max="10" width="29.54296875" style="19" customWidth="1"/>
-    <col min="11" max="11" width="11.36328125" style="19" customWidth="1"/>
-    <col min="12" max="18" width="8.7265625" style="19" customWidth="1"/>
-    <col min="19" max="19" width="30.08984375" style="19" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="19" customWidth="1"/>
-    <col min="21" max="21" width="26.81640625" style="19" customWidth="1"/>
-    <col min="22" max="25" width="8.7265625" style="19" customWidth="1"/>
-    <col min="26" max="26" width="30.08984375" style="19" customWidth="1"/>
-    <col min="27" max="27" width="19.6328125" style="19" customWidth="1"/>
-    <col min="28" max="30" width="8.7265625" style="19" customWidth="1"/>
-    <col min="31" max="31" width="28.26953125" style="19" customWidth="1"/>
-    <col min="32" max="33" width="8.7265625" style="19" customWidth="1"/>
-    <col min="34" max="34" width="26.453125" style="19" customWidth="1"/>
-    <col min="35" max="36" width="8.7265625" style="19" customWidth="1"/>
-    <col min="37" max="37" width="27.36328125" style="19" customWidth="1"/>
-    <col min="38" max="38" width="23.90625" style="19" customWidth="1"/>
-    <col min="39" max="39" width="22.1796875" style="19" customWidth="1"/>
-    <col min="40" max="59" width="8.7265625" style="19" customWidth="1"/>
-    <col min="60" max="16384" width="8.7265625" style="19"/>
+    <col min="1" max="1" width="20.6328125" style="16" customWidth="1"/>
+    <col min="2" max="16384" width="20.6328125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="24" customFormat="1" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:40" s="24" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="23"/>
     </row>
-    <row r="2" spans="1:40" s="1" customFormat="1" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
+    <row r="2" spans="1:40" s="5" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="25" t="s">
         <v>0</v>
       </c>
@@ -902,7 +916,7 @@
       <c r="X2" s="21"/>
       <c r="Y2" s="21"/>
       <c r="Z2" s="22"/>
-      <c r="AA2" s="2"/>
+      <c r="AA2" s="3"/>
       <c r="AB2" s="20" t="s">
         <v>4</v>
       </c>
@@ -919,579 +933,753 @@
       </c>
       <c r="AJ2" s="21"/>
       <c r="AK2" s="22"/>
-      <c r="AL2" s="2" t="s">
+      <c r="AL2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="4"/>
     </row>
-    <row r="3" spans="1:40" s="1" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:40" s="5" customFormat="1" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="6">
         <v>501</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="7">
         <v>502</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="10">
         <v>311</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="1">
         <v>312</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="1">
         <v>411</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="1">
         <v>412</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="1">
         <v>531</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="1">
         <v>532</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="1">
         <v>541</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="1">
         <v>542</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="10">
         <v>221</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3" s="10">
         <v>201</v>
       </c>
-      <c r="W3" s="4">
+      <c r="W3" s="1">
         <v>202</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X3" s="1">
         <v>211</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Y3" s="1">
         <v>212</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="Z3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB3" s="6">
+      <c r="AA3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB3" s="10">
         <v>222</v>
       </c>
-      <c r="AC3" s="4">
+      <c r="AC3" s="1">
         <v>223</v>
       </c>
-      <c r="AD3" s="4">
+      <c r="AD3" s="1">
         <v>224</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AE3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AF3" s="6">
+      <c r="AF3" s="10">
         <v>301</v>
       </c>
-      <c r="AG3" s="4">
+      <c r="AG3" s="1">
         <v>401</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AH3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AI3" s="6">
+      <c r="AI3" s="10">
         <v>231</v>
       </c>
-      <c r="AJ3" s="4">
+      <c r="AJ3" s="1">
         <v>232</v>
       </c>
-      <c r="AK3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL3" s="28" t="s">
+      <c r="AK3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AM3" s="8" t="s">
+      <c r="AL3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AN3" s="3"/>
+      <c r="AM3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN3" s="4"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="15">
+        <v>242</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM4" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="H5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="11" t="s">
+      <c r="J5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11" t="s">
+      <c r="L5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="M5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="11">
-        <v>242</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11" t="s">
+      <c r="R5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA4" s="11" t="s">
+      <c r="T5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AB4" s="11" t="s">
+      <c r="V5" s="15"/>
+      <c r="W5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AC4" s="11" t="s">
+      <c r="AB5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AD4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM4" s="11" t="s">
-        <v>36</v>
+      <c r="AC5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG5" s="15"/>
+      <c r="AM5" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.5">
-      <c r="A5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="11" t="s">
+    <row r="6" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="C6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="D6" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="F6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" s="15">
+        <v>0.41</v>
+      </c>
+      <c r="U6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="V6" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="Z6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB6" s="15">
+        <v>0.98</v>
+      </c>
+      <c r="AC6" s="15">
+        <v>0.98</v>
+      </c>
+      <c r="AD6" s="15">
+        <v>0.98</v>
+      </c>
+      <c r="AE6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF6" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="AG6" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="AH6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM6" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="V7" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="W7" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="X7" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB7" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF7" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG7" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM7" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG5" s="11"/>
-      <c r="AM5" s="11" t="s">
-        <v>36</v>
+      <c r="G8" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="V8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="W8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="X8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y8" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA8" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB8" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC8" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF8" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM8" s="15" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="12" t="s">
+    <row r="9" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="12">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="12" t="s">
+      <c r="F9" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="12" t="s">
+      <c r="K9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="L9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="M9" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="N9" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="O9" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="P9" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="S6" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" s="12">
-        <v>0.41</v>
-      </c>
-      <c r="U6" t="s">
-        <v>29</v>
-      </c>
-      <c r="V6" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA6" s="12" t="s">
+      <c r="Q9" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AB6" s="12">
-        <v>0.98</v>
-      </c>
-      <c r="AC6" s="12">
-        <v>0.98</v>
-      </c>
-      <c r="AD6" s="12">
-        <v>0.98</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF6" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="AG6" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM6" s="12" t="s">
-        <v>52</v>
+      <c r="R9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="V9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="W9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="X9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA9" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB9" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC9" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM9" s="15" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.5">
-      <c r="A7" s="10"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AM7" s="12"/>
+    <row r="10" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.5">
-      <c r="A8" s="10"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AM8" s="12"/>
+    <row r="13" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.5">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AM9" s="12"/>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.5">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="12"/>
-      <c r="AL10" s="12"/>
-      <c r="AM10" s="12"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.5">
-      <c r="A14" s="10"/>
+    <row r="14" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/myapp/data/checksheet_data.xlsx
+++ b/myapp/data/checksheet_data.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD16"/>
+  <dimension ref="A1:XFD22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AL13" sqref="AL13"/>
@@ -3002,6 +3002,656 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>10M LINE#02</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0265.310.087</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MB</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Vinayak Lohar</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>44343</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>3434</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>10M LINE#03</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0265.310.087</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MB</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Monomoy</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>44343</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>3434</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>10M LINE#02</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0265.310.087</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ML</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Vinayak Lohar</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>44343</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>3434</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>10M LINE#01</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0265.310.087</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ML</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Kulthesh Patil</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>44343</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>3434</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-08-16</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>10M LINE#02</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0265.310.087</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ML</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Kulthesh Patil</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>44343</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>3434</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>10M LINE#02</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0265.310.087</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ML</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Shivam Gorade</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>44343</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>3434</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="AI2:AK2"/>
